--- a/GL60_Script_CreateSingleManualJournalBatchwithAttachment_21B.xlsx
+++ b/GL60_Script_CreateSingleManualJournalBatchwithAttachment_21B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\21B_Results_and_Scripts\GL Scripts Batch2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ4862\Desktop\GL Batch1 Scripts with Navigation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15192FF-E3EA-493D-A9E3-391C4116F16C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED4D242-D1BF-462B-95FA-01D5945FCEDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="452" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="452" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateSingleBatchwAtch" sheetId="30" r:id="rId1"/>
@@ -18,16 +18,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AllObjects!$A$1:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreateSingleBatchwAtch!$A$1:$N$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreateSingleBatchwAtch!$A$1:$N$127</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="530">
   <si>
     <t>SCREENSHOT</t>
   </si>
@@ -1404,6 +1402,228 @@
   </si>
   <si>
     <t>WaitForDuration</t>
+  </si>
+  <si>
+    <t>Manage Journal Page</t>
+  </si>
+  <si>
+    <t>Explicit wait for ManageJournals</t>
+  </si>
+  <si>
+    <t>Click on ManageJournals</t>
+  </si>
+  <si>
+    <t>Clicked on ManageJournals</t>
+  </si>
+  <si>
+    <t>Delayed</t>
+  </si>
+  <si>
+    <t>Explicit wait for Basic</t>
+  </si>
+  <si>
+    <t>Click on Basic</t>
+  </si>
+  <si>
+    <t>Clicked on Basic</t>
+  </si>
+  <si>
+    <t>Explicit wait for Advanced</t>
+  </si>
+  <si>
+    <t>Explicit wait for EnterBatch</t>
+  </si>
+  <si>
+    <t>Enter Journal Name</t>
+  </si>
+  <si>
+    <t>Journal Name Entered</t>
+  </si>
+  <si>
+    <t>Entered Journal Name</t>
+  </si>
+  <si>
+    <t>Tab Key Enter</t>
+  </si>
+  <si>
+    <t>Tab Key Entered</t>
+  </si>
+  <si>
+    <t>Enter Accounting Period</t>
+  </si>
+  <si>
+    <t>Entered Accounting Period</t>
+  </si>
+  <si>
+    <t>Click on Search</t>
+  </si>
+  <si>
+    <t>Clicked on search</t>
+  </si>
+  <si>
+    <t>Verify Text</t>
+  </si>
+  <si>
+    <t>Verified Text</t>
+  </si>
+  <si>
+    <t>VerifyText</t>
+  </si>
+  <si>
+    <t>Explicit wait for Done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Done </t>
+  </si>
+  <si>
+    <t>Clicked on Done</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'AT1:_ATp:t1:0:commandLink3')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'queryP:value10::content')]</t>
+  </si>
+  <si>
+    <t>//span[label[text()=' Accounting Period']]/input</t>
+  </si>
+  <si>
+    <t>AccountingPeriodValidation</t>
+  </si>
+  <si>
+    <t>EnterJournalBatchValidation</t>
+  </si>
+  <si>
+    <t>VerifySearchJournalValidation</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'queryP:value00::content')]</t>
+  </si>
+  <si>
+    <t>EnterJournalNameValidation</t>
+  </si>
+  <si>
+    <t>//a/span[text()='ne']</t>
+  </si>
+  <si>
+    <t>//button[contains(@id,':pt1:ap1:queryP::mode')]</t>
+  </si>
+  <si>
+    <t>//button[contains(@id,'pt1:ap1:queryP::mode')]</t>
+  </si>
+  <si>
+    <t>SearchResults</t>
+  </si>
+  <si>
+    <t>//div[table[@summary='Search Results']]</t>
+  </si>
+  <si>
+    <t>TasksValidation</t>
+  </si>
+  <si>
+    <t>BasicValidation</t>
+  </si>
+  <si>
+    <t>AdvancedValidation</t>
+  </si>
+  <si>
+    <t>DoneValidation</t>
+  </si>
+  <si>
+    <t>//button[contains(@id,':pt1:ap1:queryP::search')]</t>
+  </si>
+  <si>
+    <t>SearchValidation</t>
+  </si>
+  <si>
+    <t>//a[text()='Manage Journals']</t>
+  </si>
+  <si>
+    <t>ManageJournalsValidation</t>
+  </si>
+  <si>
+    <t>TasksPanelDivValidation</t>
+  </si>
+  <si>
+    <t>Step 100</t>
+  </si>
+  <si>
+    <t>Step 101</t>
+  </si>
+  <si>
+    <t>Step 102</t>
+  </si>
+  <si>
+    <t>Step 103</t>
+  </si>
+  <si>
+    <t>Step 104</t>
+  </si>
+  <si>
+    <t>Step 105</t>
+  </si>
+  <si>
+    <t>Step 106</t>
+  </si>
+  <si>
+    <t>Step 107</t>
+  </si>
+  <si>
+    <t>Step 108</t>
+  </si>
+  <si>
+    <t>Step 109</t>
+  </si>
+  <si>
+    <t>Step 110</t>
+  </si>
+  <si>
+    <t>Step 111</t>
+  </si>
+  <si>
+    <t>Step 112</t>
+  </si>
+  <si>
+    <t>Step 113</t>
+  </si>
+  <si>
+    <t>Step 114</t>
+  </si>
+  <si>
+    <t>Step 115</t>
+  </si>
+  <si>
+    <t>Step 116</t>
+  </si>
+  <si>
+    <t>Step 117</t>
+  </si>
+  <si>
+    <t>Step 118</t>
+  </si>
+  <si>
+    <t>Step 119</t>
+  </si>
+  <si>
+    <t>Step 120</t>
+  </si>
+  <si>
+    <t>Step 121</t>
+  </si>
+  <si>
+    <t>Step 122</t>
+  </si>
+  <si>
+    <t>Step 123</t>
+  </si>
+  <si>
+    <t>Step 124</t>
+  </si>
+  <si>
+    <t>Step 125</t>
+  </si>
+  <si>
+    <t>Step 126</t>
   </si>
 </sst>
 </file>
@@ -1884,7 +2104,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1990,6 +2210,17 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -9837,7 +10068,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -9851,6 +10082,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="7828" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7829">
     <cellStyle name=" 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -17683,7 +17915,587 @@
     <cellStyle name="Warning Text 9" xfId="5939" xr:uid="{00000000-0005-0000-0000-0000911E0000}"/>
     <cellStyle name="Warning Text 9 2" xfId="7821" xr:uid="{00000000-0005-0000-0000-0000921E0000}"/>
   </cellStyles>
-  <dxfs count="141">
+  <dxfs count="199">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -19438,10 +20250,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N100"/>
+  <dimension ref="A1:N127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -19453,7 +20265,7 @@
     <col min="5" max="5" width="29.453125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="20.90625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="18.36328125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.36328125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.7265625" style="2" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="13.36328125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="16.81640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="23.6328125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
@@ -19703,9 +20515,6 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="2" t="s">
-        <v>266</v>
-      </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
@@ -19739,9 +20548,6 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="2" t="s">
-        <v>266</v>
-      </c>
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
@@ -19770,9 +20576,6 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="2" t="s">
-        <v>266</v>
-      </c>
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
@@ -19806,9 +20609,6 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="2" t="s">
-        <v>266</v>
-      </c>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
@@ -19835,9 +20635,6 @@
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="2" t="s">
-        <v>266</v>
-      </c>
       <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
@@ -19871,9 +20668,6 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="2" t="s">
-        <v>266</v>
-      </c>
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
@@ -22512,17 +23306,20 @@
       </c>
     </row>
     <row r="93" spans="1:13">
+      <c r="A93" s="2" t="s">
+        <v>266</v>
+      </c>
       <c r="B93" s="4" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>428</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>176</v>
+        <v>29</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>21</v>
@@ -22531,31 +23328,33 @@
         <v>30</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>61</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="K93" s="2"/>
-      <c r="M93" s="8" t="s">
-        <v>161</v>
+        <v>332</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="94" spans="1:13">
+      <c r="A94" s="2" t="s">
+        <v>266</v>
+      </c>
       <c r="B94" s="4" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>429</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>292</v>
+        <v>41</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>293</v>
+        <v>42</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>21</v>
@@ -22564,31 +23363,27 @@
         <v>18</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J94" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K94" s="2"/>
+        <v>31</v>
+      </c>
       <c r="M94" s="2" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="95" spans="1:13">
+      <c r="A95" s="2" t="s">
+        <v>266</v>
+      </c>
       <c r="B95" s="4" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>430</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>295</v>
+        <v>43</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>296</v>
+        <v>29</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>21</v>
@@ -22597,428 +23392,1445 @@
         <v>30</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>129</v>
+        <v>502</v>
       </c>
       <c r="I95" s="2" t="s">
         <v>61</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="K95" s="2"/>
+        <v>332</v>
+      </c>
       <c r="M95" s="2" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="96" spans="1:13">
+      <c r="A96" s="2" t="s">
+        <v>266</v>
+      </c>
       <c r="B96" s="4" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>431</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>297</v>
+        <v>457</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>298</v>
+        <v>29</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>129</v>
+        <v>501</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K96" s="2"/>
+        <v>332</v>
+      </c>
       <c r="M96" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="97" spans="2:13">
+    <row r="97" spans="1:13">
+      <c r="A97" s="2" t="s">
+        <v>266</v>
+      </c>
       <c r="B97" s="4" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>432</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>299</v>
+        <v>458</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>300</v>
+        <v>459</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="K97" s="2"/>
+        <v>501</v>
+      </c>
       <c r="M97" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="98" spans="2:13">
+    <row r="98" spans="1:13">
+      <c r="A98" s="2" t="s">
+        <v>266</v>
+      </c>
       <c r="B98" s="4" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>433</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>302</v>
+        <v>460</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>133</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="H98" s="4"/>
       <c r="I98" s="2" t="s">
         <v>61</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="K98" s="2"/>
+        <v>334</v>
+      </c>
       <c r="M98" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="99" spans="2:13">
+    <row r="99" spans="1:13">
+      <c r="A99" s="2" t="s">
+        <v>266</v>
+      </c>
       <c r="B99" s="4" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>434</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>303</v>
+        <v>461</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>304</v>
+        <v>29</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>133</v>
+        <v>495</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K99" s="2"/>
+        <v>332</v>
+      </c>
       <c r="M99" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="100" spans="2:13">
+    <row r="100" spans="1:13">
+      <c r="A100" s="2" t="s">
+        <v>266</v>
+      </c>
       <c r="B100" s="4" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>435</v>
       </c>
       <c r="D100" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="A101" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="M102" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="A103" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="H103" s="4"/>
+      <c r="I103" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="M103" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="A104" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="A105" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K105" s="5"/>
+      <c r="M105" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="A106" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="D106" t="s">
+        <v>469</v>
+      </c>
+      <c r="E106" t="s">
+        <v>470</v>
+      </c>
+      <c r="F106" t="s">
+        <v>94</v>
+      </c>
+      <c r="G106" t="s">
+        <v>220</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="I106"/>
+      <c r="J106" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K106"/>
+      <c r="L106"/>
+      <c r="M106" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="A107" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="H107" s="4"/>
+      <c r="I107" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="M107" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="M108" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="A109" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K109" s="5"/>
+      <c r="M109" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="A110" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="D110" t="s">
+        <v>469</v>
+      </c>
+      <c r="E110" t="s">
+        <v>470</v>
+      </c>
+      <c r="F110" t="s">
+        <v>94</v>
+      </c>
+      <c r="G110" t="s">
+        <v>220</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="I110"/>
+      <c r="J110" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K110"/>
+      <c r="L110"/>
+      <c r="M110" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
+      <c r="A111" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="H111" s="4"/>
+      <c r="I111" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="M111" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
+      <c r="A112" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="M112" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
+      <c r="A113" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K113" s="2"/>
+      <c r="M113" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
+      <c r="A114" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="H114" s="4"/>
+      <c r="I114" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="M114" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
+      <c r="A115" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K115" s="2"/>
+      <c r="M115" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
+      <c r="A116" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="H116" s="4"/>
+      <c r="I116" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="M116" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
+      <c r="A117" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="M117" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
+      <c r="A118" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K118" s="2"/>
+      <c r="M118" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="A119" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="M119" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
+      <c r="B120" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K120" s="2"/>
+      <c r="M120" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
+      <c r="B121" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K121" s="2"/>
+      <c r="M121" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="B122" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K122" s="2"/>
+      <c r="M122" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
+      <c r="B123" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K123" s="2"/>
+      <c r="M123" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="B124" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K124" s="2"/>
+      <c r="M124" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="B125" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K125" s="2"/>
+      <c r="M125" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="B126" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K126" s="2"/>
+      <c r="M126" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
+      <c r="B127" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="E127" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="F127" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G100" s="2" t="s">
+      <c r="G127" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="I100" s="2" t="s">
+      <c r="I127" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J100" s="2" t="s">
+      <c r="J127" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K100" s="2"/>
-      <c r="M100" s="2" t="s">
+      <c r="K127" s="2"/>
+      <c r="M127" s="2" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="J7">
-    <cfRule type="duplicateValues" dxfId="140" priority="1253"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="1315"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="duplicateValues" dxfId="139" priority="1188"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="1250"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="duplicateValues" dxfId="138" priority="1116"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="1178"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="duplicateValues" dxfId="137" priority="1099"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="1161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83">
-    <cfRule type="duplicateValues" dxfId="136" priority="1085"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="1147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H87">
-    <cfRule type="duplicateValues" dxfId="135" priority="1061"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="1123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="duplicateValues" dxfId="134" priority="1059"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="1121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="duplicateValues" dxfId="133" priority="950"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="1012"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H89">
-    <cfRule type="duplicateValues" dxfId="132" priority="944"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="1006"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H90">
-    <cfRule type="duplicateValues" dxfId="131" priority="747"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="809"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H92">
-    <cfRule type="duplicateValues" dxfId="130" priority="745"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="807"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="duplicateValues" dxfId="129" priority="730"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="792"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79">
-    <cfRule type="duplicateValues" dxfId="128" priority="728"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="790"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J57">
-    <cfRule type="duplicateValues" dxfId="127" priority="680"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="742"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86">
-    <cfRule type="duplicateValues" dxfId="126" priority="653"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="715"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J52">
-    <cfRule type="duplicateValues" dxfId="125" priority="649"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="711"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="duplicateValues" dxfId="124" priority="646"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="708"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="duplicateValues" dxfId="123" priority="647"/>
-    <cfRule type="duplicateValues" dxfId="122" priority="648"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="709"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="710"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="duplicateValues" dxfId="121" priority="640"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="702"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="duplicateValues" dxfId="120" priority="641"/>
-    <cfRule type="duplicateValues" dxfId="119" priority="642"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="703"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="704"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="118" priority="597"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="659"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="duplicateValues" dxfId="117" priority="594"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="656"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="duplicateValues" dxfId="116" priority="595"/>
-    <cfRule type="duplicateValues" dxfId="115" priority="596"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="657"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="658"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="duplicateValues" dxfId="114" priority="591"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="653"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="duplicateValues" dxfId="113" priority="592"/>
-    <cfRule type="duplicateValues" dxfId="112" priority="593"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="654"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="655"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="duplicateValues" dxfId="111" priority="1258"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="1320"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="duplicateValues" dxfId="110" priority="503"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="565"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82">
-    <cfRule type="duplicateValues" dxfId="109" priority="413"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="475"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85">
-    <cfRule type="duplicateValues" dxfId="108" priority="407"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="469"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85">
-    <cfRule type="duplicateValues" dxfId="107" priority="408"/>
-    <cfRule type="duplicateValues" dxfId="106" priority="409"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="470"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="471"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="duplicateValues" dxfId="105" priority="380"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="442"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="duplicateValues" dxfId="104" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="240"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="duplicateValues" dxfId="103" priority="179"/>
-    <cfRule type="duplicateValues" dxfId="102" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="241"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="242"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="duplicateValues" dxfId="101" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="duplicateValues" dxfId="100" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40">
-    <cfRule type="duplicateValues" dxfId="99" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="200"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41">
-    <cfRule type="duplicateValues" dxfId="98" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="duplicateValues" dxfId="97" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="197"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="duplicateValues" dxfId="96" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="196"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="duplicateValues" dxfId="95" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="194"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="duplicateValues" dxfId="94" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="192"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77">
-    <cfRule type="duplicateValues" dxfId="93" priority="1259"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="1321"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76">
-    <cfRule type="duplicateValues" dxfId="92" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H75">
-    <cfRule type="duplicateValues" dxfId="91" priority="1262"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="1324"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="duplicateValues" dxfId="90" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="duplicateValues" dxfId="89" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="88" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="87" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="duplicateValues" dxfId="85" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="duplicateValues" dxfId="84" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J53">
-    <cfRule type="duplicateValues" dxfId="83" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="duplicateValues" dxfId="82" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="duplicateValues" dxfId="81" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="duplicateValues" dxfId="80" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="duplicateValues" dxfId="79" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="duplicateValues" dxfId="77" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="duplicateValues" dxfId="76" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="duplicateValues" dxfId="74" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="duplicateValues" dxfId="73" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="duplicateValues" dxfId="72" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="duplicateValues" dxfId="71" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="duplicateValues" dxfId="70" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="duplicateValues" dxfId="69" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="duplicateValues" dxfId="68" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="duplicateValues" dxfId="66" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="duplicateValues" dxfId="65" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="duplicateValues" dxfId="63" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="duplicateValues" dxfId="62" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="duplicateValues" dxfId="60" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="duplicateValues" dxfId="59" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="duplicateValues" dxfId="57" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="duplicateValues" dxfId="56" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="duplicateValues" dxfId="54" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="duplicateValues" dxfId="53" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="duplicateValues" dxfId="51" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="duplicateValues" dxfId="50" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="63"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H93">
+    <cfRule type="duplicateValues" dxfId="107" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H98">
+    <cfRule type="duplicateValues" dxfId="106" priority="59"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H98">
+    <cfRule type="duplicateValues" dxfId="105" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="61"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J106">
+    <cfRule type="duplicateValues" dxfId="103" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H103">
+    <cfRule type="duplicateValues" dxfId="102" priority="55"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H103">
+    <cfRule type="duplicateValues" dxfId="101" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="57"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H114">
+    <cfRule type="duplicateValues" dxfId="99" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H114">
+    <cfRule type="duplicateValues" dxfId="98" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H107">
+    <cfRule type="duplicateValues" dxfId="96" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H107">
+    <cfRule type="duplicateValues" dxfId="95" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J110">
+    <cfRule type="duplicateValues" dxfId="93" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H111">
+    <cfRule type="duplicateValues" dxfId="92" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H111">
+    <cfRule type="duplicateValues" dxfId="91" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H116">
+    <cfRule type="duplicateValues" dxfId="89" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H116">
+    <cfRule type="duplicateValues" dxfId="88" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H119">
+    <cfRule type="duplicateValues" dxfId="86" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H117">
+    <cfRule type="duplicateValues" dxfId="85" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H117">
+    <cfRule type="duplicateValues" dxfId="84" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H118">
+    <cfRule type="duplicateValues" dxfId="82" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H118">
+    <cfRule type="duplicateValues" dxfId="81" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H101">
+    <cfRule type="duplicateValues" dxfId="79" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H101">
+    <cfRule type="duplicateValues" dxfId="78" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H100">
+    <cfRule type="duplicateValues" dxfId="76" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H100">
+    <cfRule type="duplicateValues" dxfId="75" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H99">
+    <cfRule type="duplicateValues" dxfId="73" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H99">
+    <cfRule type="duplicateValues" dxfId="72" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H97">
+    <cfRule type="duplicateValues" dxfId="70" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H97">
+    <cfRule type="duplicateValues" dxfId="69" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H96">
+    <cfRule type="duplicateValues" dxfId="67" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H96">
+    <cfRule type="duplicateValues" dxfId="66" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H95">
+    <cfRule type="duplicateValues" dxfId="64" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H95">
+    <cfRule type="duplicateValues" dxfId="63" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="3"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="F1:G1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="F1:G104 F105 F109 F106:G108 F110:G1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
     <dataValidation showInputMessage="1" sqref="I2:I3 I8" xr:uid="{37FA9261-27ED-4E5E-9102-3D0F7AEE54E0}"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -23030,10 +24842,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet28"/>
-  <dimension ref="A1:D107"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A103" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -24540,127 +26352,340 @@
         <v>21</v>
       </c>
     </row>
+    <row r="108" spans="1:4">
+      <c r="C108" s="4"/>
+    </row>
+    <row r="109" spans="1:4" s="6" customFormat="1">
+      <c r="A109" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" s="6" customFormat="1">
+      <c r="A110" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" s="6" customFormat="1">
+      <c r="A111" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" s="6" customFormat="1">
+      <c r="A112" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" s="6" customFormat="1">
+      <c r="A113" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" s="6" customFormat="1">
+      <c r="A114" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" s="6" customFormat="1">
+      <c r="A115" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" s="6" customFormat="1">
+      <c r="A116" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" s="6" customFormat="1">
+      <c r="A117" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" s="6" customFormat="1">
+      <c r="A119" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" s="6" customFormat="1">
+      <c r="A120" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" s="6" customFormat="1">
+      <c r="A121" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:D9">
     <sortCondition ref="D2:D9"/>
   </sortState>
-  <conditionalFormatting sqref="A71 A57:A61 A2:A34 A41:A52 A74:A75 A77:A80 A83:A90 A96 A98 A100:A101 A105 A108:A1048576">
-    <cfRule type="duplicateValues" dxfId="49" priority="128"/>
+  <conditionalFormatting sqref="A122:A1048576 A71 A57:A61 A2:A34 A41:A52 A74:A75 A77:A80 A83:A90 A96 A98 A100:A101 A105">
+    <cfRule type="duplicateValues" dxfId="61" priority="140"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71 A57:A61 A2:A34 A41:A52 A74:A75 A77:A80 A83:A90 A96 A98 A100:A101 A105 A108:A1048576">
-    <cfRule type="duplicateValues" dxfId="48" priority="131"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="132"/>
+  <conditionalFormatting sqref="A122:A1048576 A71 A57:A61 A2:A34 A41:A52 A74:A75 A77:A80 A83:A90 A96 A98 A100:A101 A105">
+    <cfRule type="duplicateValues" dxfId="60" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
+    <cfRule type="duplicateValues" dxfId="58" priority="57"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="duplicateValues" dxfId="57" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="59"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:A39">
+    <cfRule type="duplicateValues" dxfId="55" priority="211"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:A39">
+    <cfRule type="duplicateValues" dxfId="54" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="214"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="duplicateValues" dxfId="52" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="duplicateValues" dxfId="51" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="53"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:A56">
+    <cfRule type="duplicateValues" dxfId="49" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:A56">
+    <cfRule type="duplicateValues" dxfId="48" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62">
     <cfRule type="duplicateValues" dxfId="46" priority="45"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A40">
+  <conditionalFormatting sqref="A62">
     <cfRule type="duplicateValues" dxfId="45" priority="46"/>
     <cfRule type="duplicateValues" dxfId="44" priority="47"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35:A39">
-    <cfRule type="duplicateValues" dxfId="43" priority="199"/>
+  <conditionalFormatting sqref="A63:A70">
+    <cfRule type="duplicateValues" dxfId="43" priority="42"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35:A39">
-    <cfRule type="duplicateValues" dxfId="42" priority="201"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="202"/>
+  <conditionalFormatting sqref="A63:A70">
+    <cfRule type="duplicateValues" dxfId="42" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="44"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53">
+  <conditionalFormatting sqref="A72:A73">
     <cfRule type="duplicateValues" dxfId="40" priority="39"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53">
+  <conditionalFormatting sqref="A72:A73">
     <cfRule type="duplicateValues" dxfId="39" priority="40"/>
     <cfRule type="duplicateValues" dxfId="38" priority="41"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54:A56">
+  <conditionalFormatting sqref="A76">
     <cfRule type="duplicateValues" dxfId="37" priority="36"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54:A56">
+  <conditionalFormatting sqref="A76">
     <cfRule type="duplicateValues" dxfId="36" priority="37"/>
     <cfRule type="duplicateValues" dxfId="35" priority="38"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A62">
+  <conditionalFormatting sqref="A81:A82">
     <cfRule type="duplicateValues" dxfId="34" priority="33"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A62">
+  <conditionalFormatting sqref="A81:A82">
     <cfRule type="duplicateValues" dxfId="33" priority="34"/>
     <cfRule type="duplicateValues" dxfId="32" priority="35"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A63:A70">
+  <conditionalFormatting sqref="A91:A94">
     <cfRule type="duplicateValues" dxfId="31" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A63:A70">
+  <conditionalFormatting sqref="A91:A94">
     <cfRule type="duplicateValues" dxfId="30" priority="31"/>
     <cfRule type="duplicateValues" dxfId="29" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72:A73">
+  <conditionalFormatting sqref="A95">
     <cfRule type="duplicateValues" dxfId="28" priority="27"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72:A73">
+  <conditionalFormatting sqref="A95">
     <cfRule type="duplicateValues" dxfId="27" priority="28"/>
     <cfRule type="duplicateValues" dxfId="26" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A76">
+  <conditionalFormatting sqref="A97">
     <cfRule type="duplicateValues" dxfId="25" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A76">
+  <conditionalFormatting sqref="A97">
     <cfRule type="duplicateValues" dxfId="24" priority="25"/>
     <cfRule type="duplicateValues" dxfId="23" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A81:A82">
+  <conditionalFormatting sqref="A99">
     <cfRule type="duplicateValues" dxfId="22" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A81:A82">
+  <conditionalFormatting sqref="A99">
     <cfRule type="duplicateValues" dxfId="21" priority="22"/>
     <cfRule type="duplicateValues" dxfId="20" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A91:A94">
-    <cfRule type="duplicateValues" dxfId="19" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A91:A94">
-    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A95">
-    <cfRule type="duplicateValues" dxfId="16" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A95">
-    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A97">
-    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A97">
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99">
-    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="11"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A103">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A107">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="A107:A108">
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A118">
+    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A118">
+    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A113:A117">
+    <cfRule type="duplicateValues" dxfId="8" priority="1340"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A113:A117">
+    <cfRule type="duplicateValues" dxfId="7" priority="1342"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1343"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A120">
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A120">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A121">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A121">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation showInputMessage="1" sqref="I2:I3" xr:uid="{00000000-0002-0000-0100-000000000000}"/>

--- a/GL60_Script_CreateSingleManualJournalBatchwithAttachment_21B.xlsx
+++ b/GL60_Script_CreateSingleManualJournalBatchwithAttachment_21B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ4862\Desktop\GL Batch1 Scripts with Navigation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED4D242-D1BF-462B-95FA-01D5945FCEDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3933E8-DBD0-4FAA-B5CA-8EA21D7C0D81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="452" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="452" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateSingleBatchwAtch" sheetId="30" r:id="rId1"/>
@@ -1383,9 +1383,6 @@
     <t>AccountLineCredit</t>
   </si>
   <si>
-    <t>//*[@id="pt1:_FOr1:1:_FONSr2:0:MAnt2:1:pt1:ap1:jeLineAppTable:_ATp:t3::db"]/table/tbody/tr[2]/td[4]</t>
-  </si>
-  <si>
     <t>Account2</t>
   </si>
   <si>
@@ -1624,6 +1621,9 @@
   </si>
   <si>
     <t>Step 126</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'MAnt2:1:pt1:ap1:jeLineAppTable:_ATp:t3:1:j_id118')]</t>
   </si>
 </sst>
 </file>
@@ -20253,7 +20253,7 @@
   <dimension ref="A1:N127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -21009,10 +21009,10 @@
         <v>341</v>
       </c>
       <c r="F23" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>454</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>455</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>61</v>
@@ -21071,10 +21071,10 @@
         <v>341</v>
       </c>
       <c r="F25" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>61</v>
@@ -21172,10 +21172,10 @@
         <v>341</v>
       </c>
       <c r="F28" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>61</v>
@@ -21269,10 +21269,10 @@
         <v>341</v>
       </c>
       <c r="F31" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>61</v>
@@ -21368,10 +21368,10 @@
         <v>341</v>
       </c>
       <c r="F34" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>61</v>
@@ -21503,10 +21503,10 @@
         <v>341</v>
       </c>
       <c r="F38" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>61</v>
@@ -21707,10 +21707,10 @@
         <v>341</v>
       </c>
       <c r="F44" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>61</v>
@@ -21740,10 +21740,10 @@
         <v>341</v>
       </c>
       <c r="F45" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>61</v>
@@ -21962,7 +21962,7 @@
         <v>66</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>97</v>
@@ -22039,10 +22039,10 @@
         <v>341</v>
       </c>
       <c r="F54" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="G54" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>61</v>
@@ -22171,10 +22171,10 @@
         <v>341</v>
       </c>
       <c r="F58" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="G58" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>61</v>
@@ -22268,10 +22268,10 @@
         <v>341</v>
       </c>
       <c r="F61" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="G61" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>61</v>
@@ -22337,10 +22337,10 @@
         <v>341</v>
       </c>
       <c r="F63" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="G63" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>61</v>
@@ -22434,10 +22434,10 @@
         <v>341</v>
       </c>
       <c r="F66" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="G66" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>61</v>
@@ -22503,10 +22503,10 @@
         <v>341</v>
       </c>
       <c r="F68" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="G68" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>61</v>
@@ -22574,7 +22574,7 @@
         <v>30</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>61</v>
@@ -22632,10 +22632,10 @@
         <v>341</v>
       </c>
       <c r="F72" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="G72" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>61</v>
@@ -22671,7 +22671,7 @@
         <v>291</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="M73" s="8" t="s">
         <v>161</v>
@@ -22700,7 +22700,7 @@
         <v>60</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>61</v>
@@ -22730,10 +22730,10 @@
         <v>341</v>
       </c>
       <c r="F75" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="G75" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>61</v>
@@ -22763,10 +22763,10 @@
         <v>341</v>
       </c>
       <c r="F76" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="G76" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>61</v>
@@ -22860,10 +22860,10 @@
         <v>341</v>
       </c>
       <c r="F79" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="G79" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>61</v>
@@ -22961,10 +22961,10 @@
         <v>341</v>
       </c>
       <c r="F82" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="G82" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>61</v>
@@ -23093,10 +23093,10 @@
         <v>341</v>
       </c>
       <c r="F86" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="G86" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>61</v>
@@ -23190,10 +23190,10 @@
         <v>341</v>
       </c>
       <c r="F89" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="G89" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>61</v>
@@ -23310,7 +23310,7 @@
         <v>266</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>428</v>
@@ -23345,7 +23345,7 @@
         <v>266</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>429</v>
@@ -23374,7 +23374,7 @@
         <v>266</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>430</v>
@@ -23392,7 +23392,7 @@
         <v>30</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I95" s="2" t="s">
         <v>61</v>
@@ -23409,13 +23409,13 @@
         <v>266</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>431</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>29</v>
@@ -23427,7 +23427,7 @@
         <v>30</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I96" s="2" t="s">
         <v>61</v>
@@ -23444,16 +23444,16 @@
         <v>266</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>432</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>459</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>21</v>
@@ -23462,7 +23462,7 @@
         <v>18</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M97" s="2" t="s">
         <v>294</v>
@@ -23473,7 +23473,7 @@
         <v>266</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>433</v>
@@ -23482,13 +23482,13 @@
         <v>341</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F98" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="G98" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="H98" s="4"/>
       <c r="I98" s="2" t="s">
@@ -23506,13 +23506,13 @@
         <v>266</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>434</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>29</v>
@@ -23524,7 +23524,7 @@
         <v>30</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I99" s="2" t="s">
         <v>61</v>
@@ -23541,16 +23541,16 @@
         <v>266</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>435</v>
       </c>
       <c r="D100" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>462</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>463</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>21</v>
@@ -23559,7 +23559,7 @@
         <v>18</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="M100" s="2" t="s">
         <v>294</v>
@@ -23570,13 +23570,13 @@
         <v>266</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>29</v>
@@ -23588,7 +23588,7 @@
         <v>30</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I101" s="2" t="s">
         <v>61</v>
@@ -23605,13 +23605,13 @@
         <v>266</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>29</v>
@@ -23623,7 +23623,7 @@
         <v>30</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I102" s="2" t="s">
         <v>61</v>
@@ -23640,22 +23640,22 @@
         <v>266</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>341</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F103" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="G103" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="H103" s="4"/>
       <c r="I103" s="2" t="s">
@@ -23673,16 +23673,16 @@
         <v>266</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>467</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>21</v>
@@ -23691,7 +23691,7 @@
         <v>18</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="M104" s="2" t="s">
         <v>294</v>
@@ -23702,16 +23702,16 @@
         <v>266</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>21</v>
@@ -23720,7 +23720,7 @@
         <v>60</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I105" s="2" t="s">
         <v>61</v>
@@ -23738,16 +23738,16 @@
         <v>266</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D106" t="s">
+        <v>468</v>
+      </c>
+      <c r="E106" t="s">
         <v>469</v>
-      </c>
-      <c r="E106" t="s">
-        <v>470</v>
       </c>
       <c r="F106" t="s">
         <v>94</v>
@@ -23756,7 +23756,7 @@
         <v>220</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I106"/>
       <c r="J106" s="2" t="s">
@@ -23773,22 +23773,22 @@
         <v>266</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>341</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F107" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="G107" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="H107" s="4"/>
       <c r="I107" s="2" t="s">
@@ -23806,13 +23806,13 @@
         <v>266</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>29</v>
@@ -23824,7 +23824,7 @@
         <v>30</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>61</v>
@@ -23841,16 +23841,16 @@
         <v>266</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D109" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="E109" s="4" t="s">
         <v>471</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>472</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>21</v>
@@ -23859,7 +23859,7 @@
         <v>60</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I109" s="2" t="s">
         <v>61</v>
@@ -23877,16 +23877,16 @@
         <v>266</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D110" t="s">
+        <v>468</v>
+      </c>
+      <c r="E110" t="s">
         <v>469</v>
-      </c>
-      <c r="E110" t="s">
-        <v>470</v>
       </c>
       <c r="F110" t="s">
         <v>94</v>
@@ -23895,7 +23895,7 @@
         <v>220</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I110"/>
       <c r="J110" s="2" t="s">
@@ -23912,22 +23912,22 @@
         <v>266</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>341</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F111" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="G111" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="G111" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="H111" s="4"/>
       <c r="I111" s="2" t="s">
@@ -23945,16 +23945,16 @@
         <v>266</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>21</v>
@@ -23963,7 +23963,7 @@
         <v>30</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I112" s="2" t="s">
         <v>61</v>
@@ -23980,16 +23980,16 @@
         <v>266</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D113" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="E113" s="4" t="s">
         <v>473</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>474</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>21</v>
@@ -23998,7 +23998,7 @@
         <v>291</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I113" s="2" t="s">
         <v>19</v>
@@ -24013,22 +24013,22 @@
         <v>266</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>341</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F114" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="G114" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="G114" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="H114" s="4"/>
       <c r="I114" s="2" t="s">
@@ -24046,25 +24046,25 @@
         <v>266</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D115" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="E115" s="4" t="s">
         <v>475</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>476</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I115" s="2" t="s">
         <v>61</v>
@@ -24082,22 +24082,22 @@
         <v>266</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>341</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F116" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="G116" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="G116" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="H116" s="4"/>
       <c r="I116" s="2" t="s">
@@ -24115,13 +24115,13 @@
         <v>266</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>29</v>
@@ -24133,7 +24133,7 @@
         <v>30</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I117" s="2" t="s">
         <v>61</v>
@@ -24150,16 +24150,16 @@
         <v>266</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D118" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="E118" s="4" t="s">
         <v>479</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>480</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>21</v>
@@ -24168,7 +24168,7 @@
         <v>18</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I118" s="2" t="s">
         <v>19</v>
@@ -24183,10 +24183,10 @@
         <v>266</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>40</v>
@@ -24215,10 +24215,10 @@
     </row>
     <row r="120" spans="1:13">
       <c r="B120" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>177</v>
@@ -24248,10 +24248,10 @@
     </row>
     <row r="121" spans="1:13">
       <c r="B121" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>292</v>
@@ -24281,10 +24281,10 @@
     </row>
     <row r="122" spans="1:13">
       <c r="B122" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>295</v>
@@ -24314,10 +24314,10 @@
     </row>
     <row r="123" spans="1:13">
       <c r="B123" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>297</v>
@@ -24347,10 +24347,10 @@
     </row>
     <row r="124" spans="1:13">
       <c r="B124" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>299</v>
@@ -24380,10 +24380,10 @@
     </row>
     <row r="125" spans="1:13">
       <c r="B125" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>301</v>
@@ -24413,10 +24413,10 @@
     </row>
     <row r="126" spans="1:13">
       <c r="B126" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>303</v>
@@ -24446,10 +24446,10 @@
     </row>
     <row r="127" spans="1:13">
       <c r="B127" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>305</v>
@@ -24845,7 +24845,7 @@
   <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView topLeftCell="A103" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121"/>
+      <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -26331,8 +26331,8 @@
       <c r="B106" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C106" s="4" t="s">
-        <v>449</v>
+      <c r="C106" s="2" t="s">
+        <v>529</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>21</v>
@@ -26340,13 +26340,13 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>21</v>
@@ -26357,13 +26357,13 @@
     </row>
     <row r="109" spans="1:4" s="6" customFormat="1">
       <c r="A109" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>21</v>
@@ -26371,13 +26371,13 @@
     </row>
     <row r="110" spans="1:4" s="6" customFormat="1">
       <c r="A110" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>21</v>
@@ -26385,13 +26385,13 @@
     </row>
     <row r="111" spans="1:4" s="6" customFormat="1">
       <c r="A111" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>21</v>
@@ -26399,13 +26399,13 @@
     </row>
     <row r="112" spans="1:4" s="6" customFormat="1">
       <c r="A112" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>21</v>
@@ -26413,13 +26413,13 @@
     </row>
     <row r="113" spans="1:4" s="6" customFormat="1">
       <c r="A113" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>21</v>
@@ -26427,13 +26427,13 @@
     </row>
     <row r="114" spans="1:4" s="6" customFormat="1">
       <c r="A114" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>21</v>
@@ -26455,13 +26455,13 @@
     </row>
     <row r="116" spans="1:4" s="6" customFormat="1">
       <c r="A116" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>21</v>
@@ -26469,13 +26469,13 @@
     </row>
     <row r="117" spans="1:4" s="6" customFormat="1">
       <c r="A117" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>21</v>
@@ -26483,7 +26483,7 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>28</v>
@@ -26497,13 +26497,13 @@
     </row>
     <row r="119" spans="1:4" s="6" customFormat="1">
       <c r="A119" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>21</v>
@@ -26511,13 +26511,13 @@
     </row>
     <row r="120" spans="1:4" s="6" customFormat="1">
       <c r="A120" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>21</v>
@@ -26525,7 +26525,7 @@
     </row>
     <row r="121" spans="1:4" s="6" customFormat="1">
       <c r="A121" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>28</v>
